--- a/TestLists.xlsx
+++ b/TestLists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.munoz\source\repos\SchoolManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080E9087-D73B-4C56-8D18-1C5FEA03D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769FC93-EC4F-4126-8E1C-DDA9FD7F652D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4FC09BB-1AC5-464A-BF38-7194EA60631D}"/>
   </bookViews>
@@ -357,7 +357,8 @@
   <si>
     <t>7 Martin/80
 9 Erick/45
-5 Rod/40</t>
+5 Rod/40
+1 Bart / 70</t>
   </si>
 </sst>
 </file>
@@ -430,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{346DF503-3A8A-4395-ABB2-A252FF01AFAC}" name="Students" displayName="Students" ref="A5:K15" totalsRowShown="0">
-  <autoFilter ref="A5:K15" xr:uid="{346DF503-3A8A-4395-ABB2-A252FF01AFAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{346DF503-3A8A-4395-ABB2-A252FF01AFAC}" name="Students" displayName="Students" ref="B5:L15" totalsRowShown="0">
+  <autoFilter ref="B5:L15" xr:uid="{346DF503-3A8A-4395-ABB2-A252FF01AFAC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{3DEFAE2B-D63B-4194-9632-2B47016D7684}" name="ID"/>
     <tableColumn id="2" xr3:uid="{3EB39417-9A40-4C12-B1A5-946B2347D861}" name="First Name "/>
@@ -450,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20365F99-5206-4A5D-B868-3BB1D0023919}" name="Teachers" displayName="Teachers" ref="A20:J25" totalsRowShown="0">
-  <autoFilter ref="A20:J25" xr:uid="{20365F99-5206-4A5D-B868-3BB1D0023919}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20365F99-5206-4A5D-B868-3BB1D0023919}" name="Teachers" displayName="Teachers" ref="B20:K25" totalsRowShown="0">
+  <autoFilter ref="B20:K25" xr:uid="{20365F99-5206-4A5D-B868-3BB1D0023919}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F31239C6-E1CE-4798-80C8-926AB820DBCF}" name="ID"/>
     <tableColumn id="2" xr3:uid="{75F61557-EC3C-4CB5-B34F-CE7455DDC04F}" name="First Name "/>
@@ -469,8 +470,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F91E0B-9937-4C67-BA79-A557BFB013E4}" name="Courses" displayName="Courses" ref="A30:J33" totalsRowShown="0">
-  <autoFilter ref="A30:J33" xr:uid="{E5F91E0B-9937-4C67-BA79-A557BFB013E4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5F91E0B-9937-4C67-BA79-A557BFB013E4}" name="Courses" displayName="Courses" ref="B30:K34" totalsRowShown="0">
+  <autoFilter ref="B30:K34" xr:uid="{E5F91E0B-9937-4C67-BA79-A557BFB013E4}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5C41C675-8A0E-460A-91A0-6DE8544C3F1C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{8EB70CFF-2C40-4A87-A330-5920B1AD9BC1}" name="Name "/>
@@ -784,741 +785,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604E8699-DA06-4D4C-AAFA-F1D114940727}">
-  <dimension ref="A4:K33"/>
+  <dimension ref="B4:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>41456</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>63255360</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>45495</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>60</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>40646</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>77090221</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>45495</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>99</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>45</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>40707</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>65815401</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>45495</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>29</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>70</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>40337</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>64067661</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>45495</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>30</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>50</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>40322</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>72854291</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>45495</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>80</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>40316</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>76291649</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>45495</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>27</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>85</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>41192</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>61837967</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>45495</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>28</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>95</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>25</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>40831</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>72895016</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>45495</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>30</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>15</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>40478</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>64220223</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>45495</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>80</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>42324</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>60269883</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>45495</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>26</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>75</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>11</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>32</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>43</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>34066</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>61</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>79835172</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>45495</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>62</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>65</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>33375</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>86</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>78714903</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>45495</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>63</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>69</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>33090</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>87</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>76902228</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>45495</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>64</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>68</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>32430</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>88</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>71505889</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>45495</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>63</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>67</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>34789</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>75661650</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>45495</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>62</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>66</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>3500</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>57</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>58</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>59</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>60</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>70</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>71</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>72</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>80</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>60</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>65</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>82</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>84</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>90</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>60</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>40</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>37</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>83</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>85</v>
-      </c>
-      <c r="H33">
-        <v>50</v>
       </c>
       <c r="I33">
         <v>50</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33">
+        <v>50</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>103</v>
       </c>
     </row>

--- a/TestLists.xlsx
+++ b/TestLists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo.munoz\source\repos\SchoolManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3769FC93-EC4F-4126-8E1C-DDA9FD7F652D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE72A5-5740-44ED-99FA-0652A2A57F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4FC09BB-1AC5-464A-BF38-7194EA60631D}"/>
   </bookViews>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604E8699-DA06-4D4C-AAFA-F1D114940727}">
   <dimension ref="B4:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +802,7 @@
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,7 +875,7 @@
         <v>60</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
         <v>76</v>
@@ -910,7 +910,7 @@
         <v>99</v>
       </c>
       <c r="K7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>95</v>
@@ -945,7 +945,7 @@
         <v>70</v>
       </c>
       <c r="K8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -980,7 +980,7 @@
         <v>50</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
         <v>97</v>
@@ -1015,7 +1015,7 @@
         <v>80</v>
       </c>
       <c r="K10">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -1050,7 +1050,7 @@
         <v>85</v>
       </c>
       <c r="K11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
         <v>94</v>
@@ -1085,7 +1085,7 @@
         <v>95</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>100</v>
@@ -1120,7 +1120,7 @@
         <v>30</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
         <v>93</v>
@@ -1155,7 +1155,7 @@
         <v>80</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>99</v>
@@ -1190,7 +1190,7 @@
         <v>75</v>
       </c>
       <c r="K15">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
         <v>98</v>
